--- a/TempleSYS/系統文件/開表格快速SQL.xlsx
+++ b/TempleSYS/系統文件/開表格快速SQL.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A1206-45C9-42DA-96A7-EBF7CC1879CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="6855" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQLSERVER開立" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="ASP_Grid" sheetId="5" r:id="rId3"/>
     <sheet name="MYSQL開立與備註" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="329">
   <si>
     <t>表格名稱</t>
   </si>
@@ -1049,13 +1050,29 @@
   </si>
   <si>
     <t>基礎使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">create table </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1420,21 +1437,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H1:U16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
     <col min="17" max="17" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1503,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1537,10 @@
         <v>[BoDate][DateTime]null,</v>
       </c>
     </row>
-    <row r="4" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +1573,10 @@
         <v>[BoContent][nvarchar](max)null,</v>
       </c>
     </row>
-    <row r="5" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>326</v>
+      </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1607,7 @@
         <v>[BoEndDate][DateTime]null,</v>
       </c>
     </row>
-    <row r="6" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1717,7 @@
         <v>CREATE TABLE [dbo].[TempleBoard](</v>
       </c>
     </row>
-    <row r="9" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1748,10 @@
         <v>[UpdateDate][DateTime]null,</v>
       </c>
     </row>
-    <row r="10" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
@@ -1751,7 +1784,7 @@
         <v>[UpdateName][varchar](50)null,</v>
       </c>
     </row>
-    <row r="16" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2049,11 +2082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E2:U80"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TempleSYS/系統文件/開表格快速SQL.xlsx
+++ b/TempleSYS/系統文件/開表格快速SQL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A1206-45C9-42DA-96A7-EBF7CC1879CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8AB9C-A4D0-450A-8A33-32B3C12196FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="195" windowWidth="15375" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQLSERVER開立" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="322">
   <si>
     <t>表格名稱</t>
   </si>
@@ -809,6 +809,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BoEndDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleBoard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>BoDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -817,22 +865,130 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BoPeo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公佈欄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告截止日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoundField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;asp:BoundField  HeaderText="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" DataField="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公佈欄</t>
+  </si>
+  <si>
+    <t>內容</t>
+  </si>
+  <si>
+    <t>公告截止日</t>
+  </si>
+  <si>
+    <t>公告人</t>
+  </si>
+  <si>
+    <t>建立日期</t>
+  </si>
+  <si>
+    <t>建立人</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>BoEndDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BoPeo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CreateName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UpdateDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -841,190 +997,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bigint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>max</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempleBoard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempleBoard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoPeo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公佈欄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告截止日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoundField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;asp:BoundField  HeaderText="</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>" DataField="</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顯示文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公佈欄</t>
-  </si>
-  <si>
-    <t>內容</t>
-  </si>
-  <si>
-    <t>公告截止日</t>
-  </si>
-  <si>
-    <t>公告人</t>
-  </si>
-  <si>
-    <t>建立日期</t>
-  </si>
-  <si>
-    <t>建立人</t>
-  </si>
-  <si>
-    <t>更新日期</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoEndDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TemplateField</t>
   </si>
   <si>
@@ -1053,20 +1025,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表格名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">create table </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ItemNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemplePars</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1438,355 +1410,968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:U16"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
       <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(K2="",E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;M2,E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2)</f>
+        <v>[Id][bigint]null,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N34" si="0">IF(K3="",E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;M3,E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3)</f>
+        <v>[GPNo][nvarchar](20)null,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>[ItemNo][nvarchar](20)null,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>200</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>[ItemName][nvarchar](200)null,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="str">
-        <f>IF(N2="",H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;P2,H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2)</f>
-        <v>[Id][bigint]null,</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q10" si="0">IF(N3="",H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;P3,H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3)</f>
-        <v>[BoDate][DateTime]null,</v>
-      </c>
-    </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="0"/>
-        <v>[BoContent][nvarchar](max)null,</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="0"/>
-        <v>[BoEndDate][DateTime]null,</v>
-      </c>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="1">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="0"/>
-        <v>[BoPeo][nvarchar](30)null,</v>
-      </c>
-      <c r="S6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
         <v>[CreateDate][DateTime]null,</v>
       </c>
-      <c r="S7" t="s">
-        <v>277</v>
-      </c>
-      <c r="U7" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>266</v>
+      <c r="F7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreateName][varchar](20)null,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>A7&amp;A2&amp;C7</f>
+        <v>CREATE TABLE [dbo].[TemplePars](</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="0"/>
-        <v>[CreateName][varchar](50)null,</v>
-      </c>
-      <c r="S8" t="str">
-        <f>S7&amp;S2&amp;U7</f>
-        <v>CREATE TABLE [dbo].[TempleBoard](</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="0"/>
         <v>[UpdateDate][DateTime]null,</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>268</v>
+      <c r="F9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>[UpdateName][varchar](20)null,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>6</v>
       </c>
       <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="N11" t="str">
+        <f>IF(K11="",E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;M11,E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11)</f>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>[UpdateName][varchar](50)null,</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="S16" t="s">
-        <v>8</v>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" ref="N28:N34" si="1">IF(K28="",E28&amp;F28&amp;G28&amp;H28&amp;I28&amp;M28,E28&amp;F28&amp;G28&amp;H28&amp;I28&amp;J28&amp;K28&amp;L28&amp;M28)</f>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v>[][]null,</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>[][]null,</v>
       </c>
     </row>
   </sheetData>
@@ -1822,22 +2407,22 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H2" t="str">
         <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
@@ -1849,22 +2434,22 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H10" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3</f>
@@ -1876,22 +2461,22 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -1903,22 +2488,22 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1930,22 +2515,22 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1957,22 +2542,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1984,22 +2569,22 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -2011,22 +2596,22 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -2038,22 +2623,22 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2100,7 +2685,7 @@
   <sheetData>
     <row r="1" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2109,52 +2694,52 @@
     </row>
     <row r="2" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J11" t="str">
         <f>E11&amp;F11&amp;G11&amp;H11&amp;I11</f>
@@ -2163,19 +2748,19 @@
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ref="J12:J19" si="0">E12&amp;F12&amp;G12&amp;H12&amp;I12</f>
@@ -2184,19 +2769,19 @@
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F13" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -2205,19 +2790,19 @@
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" t="s">
         <v>297</v>
       </c>
-      <c r="F14" t="s">
-        <v>304</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
@@ -2226,19 +2811,19 @@
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F15" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -2247,19 +2832,19 @@
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E16" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -2268,19 +2853,19 @@
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -2289,19 +2874,19 @@
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F18" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -2310,19 +2895,19 @@
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -2331,7 +2916,7 @@
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2340,10 +2925,10 @@
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
